--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noguera\Documents\GitHub\iFerment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED212FD-5AAE-4933-AE94-FD3153282DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CA9D3-55A8-4F1C-A841-29B63D8B6864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="36" windowWidth="9900" windowHeight="11880" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="312" yWindow="384" windowWidth="19476" windowHeight="11184" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>EX_xyl4_e</t>
   </si>
@@ -765,13 +765,31 @@
   </si>
   <si>
     <t>PDH2c</t>
+  </si>
+  <si>
+    <t>ICDHyr</t>
+  </si>
+  <si>
+    <t>ME2</t>
+  </si>
+  <si>
+    <t>G3PD2</t>
+  </si>
+  <si>
+    <t>HACD1a</t>
+  </si>
+  <si>
+    <t>MTHFR3_1</t>
+  </si>
+  <si>
+    <t>LDH_L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -797,6 +815,12 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -831,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -854,6 +878,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173:XFD173"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1889,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -4509,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="C167" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -5959,6 +5986,126 @@
       </c>
       <c r="F239" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="18">
+      <c r="A240" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" s="2">
+        <v>0</v>
+      </c>
+      <c r="C240" s="1">
+        <v>0</v>
+      </c>
+      <c r="D240" s="1">
+        <v>0</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="18">
+      <c r="A241" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" s="2">
+        <v>0</v>
+      </c>
+      <c r="C241" s="1">
+        <v>0</v>
+      </c>
+      <c r="D241" s="1">
+        <v>0</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="18">
+      <c r="A242" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242" s="2">
+        <v>0</v>
+      </c>
+      <c r="C242" s="1">
+        <v>0</v>
+      </c>
+      <c r="D242" s="1">
+        <v>0</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="18">
+      <c r="A243" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" s="2">
+        <v>0</v>
+      </c>
+      <c r="C243" s="1">
+        <v>0</v>
+      </c>
+      <c r="D243" s="1">
+        <v>0</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="18">
+      <c r="A244" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" s="2">
+        <v>0</v>
+      </c>
+      <c r="C244" s="1">
+        <v>0</v>
+      </c>
+      <c r="D244" s="1">
+        <v>0</v>
+      </c>
+      <c r="E244" s="1">
+        <v>0</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="18">
+      <c r="A245" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245" s="2">
+        <v>0</v>
+      </c>
+      <c r="C245" s="1">
+        <v>0</v>
+      </c>
+      <c r="D245" s="1">
+        <v>0</v>
+      </c>
+      <c r="E245" s="1">
+        <v>0</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abeltingle/Documents/GitHub/iFerment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A0BAB-2AAB-694B-A7F4-76489407CCC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3FABAF-BECE-614D-B045-851D0AF001C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15860" yWindow="7100" windowWidth="18040" windowHeight="11880" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="10340" yWindow="3900" windowWidth="18040" windowHeight="11880" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="H238" sqref="H238"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -4927,11 +4927,11 @@
       <c r="F137" s="12">
         <v>1</v>
       </c>
-      <c r="G137" s="9">
-        <v>0</v>
-      </c>
-      <c r="H137" s="9">
-        <v>0</v>
+      <c r="G137" s="12">
+        <v>1</v>
+      </c>
+      <c r="H137" s="12">
+        <v>1</v>
       </c>
       <c r="I137" s="1"/>
     </row>

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noguera\Documents\GitHub\iFerment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CA9D3-55A8-4F1C-A841-29B63D8B6864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CDFF5E-1C54-4CCA-91A1-E6F228A07430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="384" windowWidth="19476" windowHeight="11184" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="660" yWindow="732" windowWidth="20184" windowHeight="11520" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,6 +842,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -855,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -881,6 +887,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
   <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1915,7 +1924,7 @@
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="10">
         <v>0</v>
       </c>
       <c r="D36" s="1">
@@ -2755,8 +2764,8 @@
       <c r="B78" s="2">
         <v>0</v>
       </c>
-      <c r="C78" s="1">
-        <v>0</v>
+      <c r="C78" s="10">
+        <v>1</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -2775,8 +2784,8 @@
       <c r="B79" s="2">
         <v>0</v>
       </c>
-      <c r="C79" s="1">
-        <v>0</v>
+      <c r="C79" s="10">
+        <v>1</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -3575,8 +3584,8 @@
       <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C119" s="1">
-        <v>1</v>
+      <c r="C119" s="10">
+        <v>0</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
@@ -4535,7 +4544,7 @@
       <c r="B167" s="2">
         <v>1</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="10">
         <v>0</v>
       </c>
       <c r="D167" s="1">

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noguera\Documents\GitHub\iFerment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CDFF5E-1C54-4CCA-91A1-E6F228A07430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CA9D3-55A8-4F1C-A841-29B63D8B6864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="732" windowWidth="20184" windowHeight="11520" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="312" yWindow="384" windowWidth="19476" windowHeight="11184" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,12 +842,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -861,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -887,9 +881,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
   <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1924,7 +1915,7 @@
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="1">
@@ -2764,8 +2755,8 @@
       <c r="B78" s="2">
         <v>0</v>
       </c>
-      <c r="C78" s="10">
-        <v>1</v>
+      <c r="C78" s="1">
+        <v>0</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -2784,8 +2775,8 @@
       <c r="B79" s="2">
         <v>0</v>
       </c>
-      <c r="C79" s="10">
-        <v>1</v>
+      <c r="C79" s="1">
+        <v>0</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -3584,8 +3575,8 @@
       <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C119" s="10">
-        <v>0</v>
+      <c r="C119" s="1">
+        <v>1</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
@@ -4544,7 +4535,7 @@
       <c r="B167" s="2">
         <v>1</v>
       </c>
-      <c r="C167" s="10">
+      <c r="C167" s="1">
         <v>0</v>
       </c>
       <c r="D167" s="1">

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noguera\Documents\GitHub\iFerment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CA9D3-55A8-4F1C-A841-29B63D8B6864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04D9378-6BFE-4B4D-9B67-800A5E125967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="384" windowWidth="19476" windowHeight="11184" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="660" yWindow="732" windowWidth="20184" windowHeight="11520" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,6 +842,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -855,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -881,6 +887,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
   <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1915,7 +1930,7 @@
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="10">
         <v>0</v>
       </c>
       <c r="D36" s="1">
@@ -2095,8 +2110,8 @@
       <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
+      <c r="C45" s="10">
+        <v>0</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -2755,8 +2770,8 @@
       <c r="B78" s="2">
         <v>0</v>
       </c>
-      <c r="C78" s="1">
-        <v>0</v>
+      <c r="C78" s="10">
+        <v>1</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -2775,8 +2790,8 @@
       <c r="B79" s="2">
         <v>0</v>
       </c>
-      <c r="C79" s="1">
-        <v>0</v>
+      <c r="C79" s="10">
+        <v>1</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -3575,8 +3590,8 @@
       <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C119" s="1">
-        <v>1</v>
+      <c r="C119" s="10">
+        <v>0</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
@@ -3775,7 +3790,7 @@
       <c r="B129" s="2">
         <v>1</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="12">
         <v>1</v>
       </c>
       <c r="D129" s="1">
@@ -4535,7 +4550,7 @@
       <c r="B167" s="2">
         <v>1</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="10">
         <v>0</v>
       </c>
       <c r="D167" s="1">
@@ -5195,7 +5210,7 @@
       <c r="B200" s="2">
         <v>0</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="12">
         <v>1</v>
       </c>
       <c r="D200" s="1">
@@ -5375,8 +5390,8 @@
       <c r="B209" s="2">
         <v>1</v>
       </c>
-      <c r="C209" s="2">
-        <v>1</v>
+      <c r="C209" s="11">
+        <v>0</v>
       </c>
       <c r="D209" s="2">
         <v>0</v>

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noguera\Documents\GitHub\iFerment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04D9378-6BFE-4B4D-9B67-800A5E125967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CA9D3-55A8-4F1C-A841-29B63D8B6864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="732" windowWidth="20184" windowHeight="11520" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="312" yWindow="384" windowWidth="19476" windowHeight="11184" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -823,7 +823,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,12 +842,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -861,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -887,15 +881,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
   <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1930,7 +1915,7 @@
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="1">
@@ -2110,8 +2095,8 @@
       <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="10">
-        <v>0</v>
+      <c r="C45" s="1">
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -2770,8 +2755,8 @@
       <c r="B78" s="2">
         <v>0</v>
       </c>
-      <c r="C78" s="10">
-        <v>1</v>
+      <c r="C78" s="1">
+        <v>0</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -2790,8 +2775,8 @@
       <c r="B79" s="2">
         <v>0</v>
       </c>
-      <c r="C79" s="10">
-        <v>1</v>
+      <c r="C79" s="1">
+        <v>0</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -3590,8 +3575,8 @@
       <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C119" s="10">
-        <v>0</v>
+      <c r="C119" s="1">
+        <v>1</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
@@ -3790,7 +3775,7 @@
       <c r="B129" s="2">
         <v>1</v>
       </c>
-      <c r="C129" s="12">
+      <c r="C129" s="1">
         <v>1</v>
       </c>
       <c r="D129" s="1">
@@ -4550,7 +4535,7 @@
       <c r="B167" s="2">
         <v>1</v>
       </c>
-      <c r="C167" s="10">
+      <c r="C167" s="1">
         <v>0</v>
       </c>
       <c r="D167" s="1">
@@ -5210,7 +5195,7 @@
       <c r="B200" s="2">
         <v>0</v>
       </c>
-      <c r="C200" s="12">
+      <c r="C200" s="1">
         <v>1</v>
       </c>
       <c r="D200" s="1">
@@ -5390,8 +5375,8 @@
       <c r="B209" s="2">
         <v>1</v>
       </c>
-      <c r="C209" s="11">
-        <v>0</v>
+      <c r="C209" s="2">
+        <v>1</v>
       </c>
       <c r="D209" s="2">
         <v>0</v>

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noguera\Documents\GitHub\iFerment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CA9D3-55A8-4F1C-A841-29B63D8B6864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED212FD-5AAE-4933-AE94-FD3153282DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="384" windowWidth="19476" windowHeight="11184" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="13140" yWindow="36" windowWidth="9900" windowHeight="11880" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>EX_xyl4_e</t>
   </si>
@@ -765,31 +765,13 @@
   </si>
   <si>
     <t>PDH2c</t>
-  </si>
-  <si>
-    <t>ICDHyr</t>
-  </si>
-  <si>
-    <t>ME2</t>
-  </si>
-  <si>
-    <t>G3PD2</t>
-  </si>
-  <si>
-    <t>HACD1a</t>
-  </si>
-  <si>
-    <t>MTHFR3_1</t>
-  </si>
-  <si>
-    <t>LDH_L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -815,12 +797,6 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -855,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -878,9 +854,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:XFD173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1916,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -4536,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="C167" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -5986,126 +5959,6 @@
       </c>
       <c r="F239" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="18">
-      <c r="A240" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B240" s="2">
-        <v>0</v>
-      </c>
-      <c r="C240" s="1">
-        <v>0</v>
-      </c>
-      <c r="D240" s="1">
-        <v>0</v>
-      </c>
-      <c r="E240" s="1">
-        <v>0</v>
-      </c>
-      <c r="F240" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="18">
-      <c r="A241" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B241" s="2">
-        <v>0</v>
-      </c>
-      <c r="C241" s="1">
-        <v>0</v>
-      </c>
-      <c r="D241" s="1">
-        <v>0</v>
-      </c>
-      <c r="E241" s="1">
-        <v>0</v>
-      </c>
-      <c r="F241" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="18">
-      <c r="A242" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B242" s="2">
-        <v>0</v>
-      </c>
-      <c r="C242" s="1">
-        <v>0</v>
-      </c>
-      <c r="D242" s="1">
-        <v>0</v>
-      </c>
-      <c r="E242" s="1">
-        <v>0</v>
-      </c>
-      <c r="F242" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="18">
-      <c r="A243" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B243" s="2">
-        <v>0</v>
-      </c>
-      <c r="C243" s="1">
-        <v>0</v>
-      </c>
-      <c r="D243" s="1">
-        <v>0</v>
-      </c>
-      <c r="E243" s="1">
-        <v>0</v>
-      </c>
-      <c r="F243" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="18">
-      <c r="A244" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B244" s="2">
-        <v>0</v>
-      </c>
-      <c r="C244" s="1">
-        <v>0</v>
-      </c>
-      <c r="D244" s="1">
-        <v>0</v>
-      </c>
-      <c r="E244" s="1">
-        <v>0</v>
-      </c>
-      <c r="F244" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="18">
-      <c r="A245" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B245" s="2">
-        <v>0</v>
-      </c>
-      <c r="C245" s="1">
-        <v>0</v>
-      </c>
-      <c r="D245" s="1">
-        <v>0</v>
-      </c>
-      <c r="E245" s="1">
-        <v>0</v>
-      </c>
-      <c r="F245" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abeltingle/Documents/GitHub/iFerment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3FABAF-BECE-614D-B045-851D0AF001C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E46C73D-1369-9540-8492-412E594DC6B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="3900" windowWidth="18040" windowHeight="11880" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="760" yWindow="640" windowWidth="18040" windowHeight="11880" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>EX_xyl4_e</t>
   </si>
@@ -792,6 +792,18 @@
   </si>
   <si>
     <t>MTHFD</t>
+  </si>
+  <si>
+    <t>THDF</t>
+  </si>
+  <si>
+    <t>FNOR</t>
+  </si>
+  <si>
+    <t>FMNRy_1</t>
+  </si>
+  <si>
+    <t>FMNRx</t>
   </si>
 </sst>
 </file>
@@ -868,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -903,6 +915,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1219,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -7801,25 +7816,25 @@
       <c r="A244" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B244" s="7">
-        <v>1</v>
-      </c>
-      <c r="C244" s="9">
-        <v>1</v>
-      </c>
-      <c r="D244" s="9">
-        <v>1</v>
-      </c>
-      <c r="E244" s="9">
-        <v>0</v>
-      </c>
-      <c r="F244" s="9">
-        <v>0</v>
-      </c>
-      <c r="G244" s="9">
-        <v>1</v>
-      </c>
-      <c r="H244" s="9">
+      <c r="B244" s="2">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2">
+        <v>1</v>
+      </c>
+      <c r="D244" s="2">
+        <v>1</v>
+      </c>
+      <c r="E244" s="2">
+        <v>0</v>
+      </c>
+      <c r="F244" s="2">
+        <v>0</v>
+      </c>
+      <c r="G244" s="2">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2">
         <v>0</v>
       </c>
       <c r="I244" s="1"/>
@@ -7828,25 +7843,25 @@
       <c r="A245" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B245" s="7">
-        <v>1</v>
-      </c>
-      <c r="C245" s="9">
-        <v>1</v>
-      </c>
-      <c r="D245" s="9">
-        <v>0</v>
-      </c>
-      <c r="E245" s="9">
-        <v>1</v>
-      </c>
-      <c r="F245" s="9">
-        <v>1</v>
-      </c>
-      <c r="G245" s="9">
-        <v>1</v>
-      </c>
-      <c r="H245" s="9">
+      <c r="B245" s="2">
+        <v>1</v>
+      </c>
+      <c r="C245" s="2">
+        <v>1</v>
+      </c>
+      <c r="D245" s="2">
+        <v>0</v>
+      </c>
+      <c r="E245" s="2">
+        <v>1</v>
+      </c>
+      <c r="F245" s="2">
+        <v>1</v>
+      </c>
+      <c r="G245" s="2">
+        <v>1</v>
+      </c>
+      <c r="H245" s="2">
         <v>1</v>
       </c>
       <c r="I245" s="1"/>
@@ -7855,55 +7870,133 @@
       <c r="A246" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B246" s="7">
-        <v>1</v>
-      </c>
-      <c r="C246" s="9">
-        <v>1</v>
-      </c>
-      <c r="D246" s="7">
-        <v>1</v>
-      </c>
-      <c r="E246" s="7">
-        <v>1</v>
-      </c>
-      <c r="F246" s="7">
-        <v>1</v>
-      </c>
-      <c r="G246" s="9">
-        <v>1</v>
-      </c>
-      <c r="H246" s="7">
+      <c r="B246" s="2">
+        <v>1</v>
+      </c>
+      <c r="C246" s="2">
+        <v>1</v>
+      </c>
+      <c r="D246" s="2">
+        <v>1</v>
+      </c>
+      <c r="E246" s="2">
+        <v>1</v>
+      </c>
+      <c r="F246" s="2">
+        <v>1</v>
+      </c>
+      <c r="G246" s="2">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2">
         <v>1</v>
       </c>
       <c r="I246" s="2"/>
     </row>
     <row r="247" spans="1:9" ht="19">
       <c r="A247" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B247" s="7">
-        <v>0</v>
-      </c>
-      <c r="C247" s="9">
-        <v>1</v>
-      </c>
-      <c r="D247" s="7">
-        <v>0</v>
-      </c>
-      <c r="E247" s="7">
-        <v>1</v>
-      </c>
-      <c r="F247" s="7">
-        <v>1</v>
-      </c>
-      <c r="G247" s="9">
-        <v>0</v>
-      </c>
-      <c r="H247" s="7">
+        <v>253</v>
+      </c>
+      <c r="B247" s="14">
+        <v>1</v>
+      </c>
+      <c r="C247" s="14">
+        <v>1</v>
+      </c>
+      <c r="D247" s="14">
+        <v>1</v>
+      </c>
+      <c r="E247" s="14">
+        <v>1</v>
+      </c>
+      <c r="F247" s="14">
+        <v>1</v>
+      </c>
+      <c r="G247" s="14">
+        <v>1</v>
+      </c>
+      <c r="H247" s="14">
         <v>1</v>
       </c>
       <c r="I247" s="2"/>
+    </row>
+    <row r="248" spans="1:9" ht="19">
+      <c r="A248" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248" s="14">
+        <v>1</v>
+      </c>
+      <c r="C248" s="14">
+        <v>1</v>
+      </c>
+      <c r="D248" s="14">
+        <v>1</v>
+      </c>
+      <c r="E248" s="14">
+        <v>1</v>
+      </c>
+      <c r="F248" s="14">
+        <v>1</v>
+      </c>
+      <c r="G248" s="14">
+        <v>1</v>
+      </c>
+      <c r="H248" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="19">
+      <c r="A249" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B249" s="14">
+        <v>1</v>
+      </c>
+      <c r="C249" s="14">
+        <v>1</v>
+      </c>
+      <c r="D249" s="14">
+        <v>1</v>
+      </c>
+      <c r="E249" s="14">
+        <v>1</v>
+      </c>
+      <c r="F249" s="14">
+        <v>1</v>
+      </c>
+      <c r="G249" s="14">
+        <v>1</v>
+      </c>
+      <c r="H249" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="19">
+      <c r="A250" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B250" s="14">
+        <v>1</v>
+      </c>
+      <c r="C250" s="14">
+        <v>1</v>
+      </c>
+      <c r="D250" s="14">
+        <v>1</v>
+      </c>
+      <c r="E250" s="14">
+        <v>1</v>
+      </c>
+      <c r="F250" s="14">
+        <v>1</v>
+      </c>
+      <c r="G250" s="14">
+        <v>1</v>
+      </c>
+      <c r="H250" s="14">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abeltingle/Documents/GitHub/iFerment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noguera\Documents\GitHub\iFerment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E46C73D-1369-9540-8492-412E594DC6B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9269CA2F-CBC8-4BFA-A075-6C4CD8F031F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="640" windowWidth="18040" windowHeight="11880" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="2304" yWindow="1440" windowWidth="15360" windowHeight="11520" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>EX_xyl4_e</t>
   </si>
@@ -804,6 +804,12 @@
   </si>
   <si>
     <t>FMNRx</t>
+  </si>
+  <si>
+    <t>CDH</t>
+  </si>
+  <si>
+    <t>BE</t>
   </si>
 </sst>
 </file>
@@ -848,7 +854,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,6 +873,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -880,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -918,6 +930,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1234,25 +1252,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
-  <dimension ref="A1:I250"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
@@ -1278,7 +1296,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19">
+    <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1323,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="19">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1350,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="19">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1377,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="19">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1386,7 +1404,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="19">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1431,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="19">
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +1458,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="19">
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1485,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="19">
+    <row r="9" spans="1:9" ht="18">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1512,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="19">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1539,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="19">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1548,7 +1566,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="19">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1593,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="19">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1602,7 +1620,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="19">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1629,7 +1647,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="19">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1656,7 +1674,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="19">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,7 +1701,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="19">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1728,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="19">
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1737,7 +1755,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="19">
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1764,7 +1782,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="19">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1791,7 +1809,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="19">
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1818,7 +1836,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="19">
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1845,7 +1863,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="19">
+    <row r="23" spans="1:9" ht="18">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1872,7 +1890,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="19">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1899,7 +1917,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="19">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1926,7 +1944,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="19">
+    <row r="26" spans="1:9" ht="18">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1953,7 +1971,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="19">
+    <row r="27" spans="1:9" ht="18">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1980,7 +1998,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="19">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2007,7 +2025,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="19">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2034,7 +2052,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="19">
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2061,7 +2079,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="19">
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2088,7 +2106,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="19">
+    <row r="32" spans="1:9" ht="18">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2115,7 +2133,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="19">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2142,7 +2160,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="19">
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2169,7 +2187,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="19">
+    <row r="35" spans="1:9" ht="18">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2196,7 +2214,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="19">
+    <row r="36" spans="1:9" ht="18">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2223,7 +2241,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="19">
+    <row r="37" spans="1:9" ht="18">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2250,7 +2268,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="19">
+    <row r="38" spans="1:9" ht="18">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2277,7 +2295,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="19">
+    <row r="39" spans="1:9" ht="18">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2304,7 +2322,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="19">
+    <row r="40" spans="1:9" ht="18">
       <c r="A40" s="1" t="s">
         <v>217</v>
       </c>
@@ -2331,7 +2349,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="19">
+    <row r="41" spans="1:9" ht="18">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -2358,7 +2376,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="19">
+    <row r="42" spans="1:9" ht="18">
       <c r="A42" s="3" t="s">
         <v>39</v>
       </c>
@@ -2385,7 +2403,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="19">
+    <row r="43" spans="1:9" ht="18">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -2412,7 +2430,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="19">
+    <row r="44" spans="1:9" ht="18">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -2439,7 +2457,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="19">
+    <row r="45" spans="1:9" ht="18">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -2466,7 +2484,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="19">
+    <row r="46" spans="1:9" ht="18">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -2493,7 +2511,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="19">
+    <row r="47" spans="1:9" ht="18">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -2520,7 +2538,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="19">
+    <row r="48" spans="1:9" ht="18">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
@@ -2547,7 +2565,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="19">
+    <row r="49" spans="1:9" ht="18">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -2574,7 +2592,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="19">
+    <row r="50" spans="1:9" ht="18">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -2601,7 +2619,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="19">
+    <row r="51" spans="1:9" ht="18">
       <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
@@ -2628,7 +2646,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="19">
+    <row r="52" spans="1:9" ht="18">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -2655,7 +2673,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="19">
+    <row r="53" spans="1:9" ht="18">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -2682,7 +2700,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="19">
+    <row r="54" spans="1:9" ht="18">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -2709,7 +2727,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="19">
+    <row r="55" spans="1:9" ht="18">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -2736,7 +2754,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="19">
+    <row r="56" spans="1:9" ht="18">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -2763,7 +2781,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="19">
+    <row r="57" spans="1:9" ht="18">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -2790,7 +2808,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="19">
+    <row r="58" spans="1:9" ht="18">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -2817,7 +2835,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="19">
+    <row r="59" spans="1:9" ht="18">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -2844,7 +2862,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="19">
+    <row r="60" spans="1:9" ht="18">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -2871,7 +2889,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="19">
+    <row r="61" spans="1:9" ht="18">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -2898,7 +2916,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="19">
+    <row r="62" spans="1:9" ht="18">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -2925,7 +2943,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="19">
+    <row r="63" spans="1:9" ht="18">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,7 +2970,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="19">
+    <row r="64" spans="1:9" ht="18">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -2979,7 +2997,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="19">
+    <row r="65" spans="1:9" ht="18">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -3006,7 +3024,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="19">
+    <row r="66" spans="1:9" ht="18">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -3033,7 +3051,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="19">
+    <row r="67" spans="1:9" ht="18">
       <c r="A67" s="3" t="s">
         <v>64</v>
       </c>
@@ -3060,7 +3078,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="19">
+    <row r="68" spans="1:9" ht="18">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -3087,7 +3105,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="19">
+    <row r="69" spans="1:9" ht="18">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -3114,7 +3132,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="19">
+    <row r="70" spans="1:9" ht="18">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -3141,7 +3159,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="19">
+    <row r="71" spans="1:9" ht="18">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -3168,7 +3186,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="19">
+    <row r="72" spans="1:9" ht="18">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,7 +3213,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="19">
+    <row r="73" spans="1:9" ht="18">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
@@ -3222,7 +3240,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="19">
+    <row r="74" spans="1:9" ht="18">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
@@ -3249,7 +3267,7 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="19">
+    <row r="75" spans="1:9" ht="18">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
@@ -3276,7 +3294,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="19">
+    <row r="76" spans="1:9" ht="18">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,7 +3321,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="19">
+    <row r="77" spans="1:9" ht="18">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -3330,15 +3348,15 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="19">
+    <row r="78" spans="1:9" ht="18">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B78" s="7">
         <v>0</v>
       </c>
-      <c r="C78" s="9">
-        <v>0</v>
+      <c r="C78" s="15">
+        <v>1</v>
       </c>
       <c r="D78" s="9">
         <v>0</v>
@@ -3357,15 +3375,15 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="19">
+    <row r="79" spans="1:9" ht="18">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B79" s="7">
         <v>0</v>
       </c>
-      <c r="C79" s="9">
-        <v>0</v>
+      <c r="C79" s="15">
+        <v>1</v>
       </c>
       <c r="D79" s="9">
         <v>0</v>
@@ -3384,7 +3402,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="19">
+    <row r="80" spans="1:9" ht="18">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -3411,7 +3429,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="19">
+    <row r="81" spans="1:9" ht="18">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -3438,7 +3456,7 @@
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="19">
+    <row r="82" spans="1:9" ht="18">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -3465,7 +3483,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="19">
+    <row r="83" spans="1:9" ht="18">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -3492,7 +3510,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="19">
+    <row r="84" spans="1:9" ht="18">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -3519,7 +3537,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="19">
+    <row r="85" spans="1:9" ht="18">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -3546,7 +3564,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="19">
+    <row r="86" spans="1:9" ht="18">
       <c r="A86" s="3" t="s">
         <v>83</v>
       </c>
@@ -3573,7 +3591,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="19">
+    <row r="87" spans="1:9" ht="18">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -3600,7 +3618,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="19">
+    <row r="88" spans="1:9" ht="18">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
@@ -3627,7 +3645,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="19">
+    <row r="89" spans="1:9" ht="18">
       <c r="A89" s="3" t="s">
         <v>86</v>
       </c>
@@ -3654,7 +3672,7 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="19">
+    <row r="90" spans="1:9" ht="18">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -3681,7 +3699,7 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="19">
+    <row r="91" spans="1:9" ht="18">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
@@ -3708,7 +3726,7 @@
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="19">
+    <row r="92" spans="1:9" ht="18">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
@@ -3735,7 +3753,7 @@
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="19">
+    <row r="93" spans="1:9" ht="18">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
@@ -3762,7 +3780,7 @@
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="19">
+    <row r="94" spans="1:9" ht="18">
       <c r="A94" s="3" t="s">
         <v>91</v>
       </c>
@@ -3789,7 +3807,7 @@
       </c>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="19">
+    <row r="95" spans="1:9" ht="18">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
@@ -3816,7 +3834,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="19">
+    <row r="96" spans="1:9" ht="18">
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
@@ -3843,7 +3861,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="19">
+    <row r="97" spans="1:9" ht="18">
       <c r="A97" s="3" t="s">
         <v>94</v>
       </c>
@@ -3870,7 +3888,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="19">
+    <row r="98" spans="1:9" ht="18">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -3897,7 +3915,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="19">
+    <row r="99" spans="1:9" ht="18">
       <c r="A99" s="3" t="s">
         <v>96</v>
       </c>
@@ -3924,7 +3942,7 @@
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="19">
+    <row r="100" spans="1:9" ht="18">
       <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
@@ -3951,7 +3969,7 @@
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="19">
+    <row r="101" spans="1:9" ht="18">
       <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
@@ -3978,7 +3996,7 @@
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="19">
+    <row r="102" spans="1:9" ht="18">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
@@ -4005,7 +4023,7 @@
       </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="19">
+    <row r="103" spans="1:9" ht="18">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
@@ -4032,7 +4050,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="19">
+    <row r="104" spans="1:9" ht="18">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
@@ -4059,7 +4077,7 @@
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="19">
+    <row r="105" spans="1:9" ht="18">
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
@@ -4086,7 +4104,7 @@
       </c>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="19">
+    <row r="106" spans="1:9" ht="18">
       <c r="A106" s="1" t="s">
         <v>103</v>
       </c>
@@ -4113,7 +4131,7 @@
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="19">
+    <row r="107" spans="1:9" ht="18">
       <c r="A107" s="1" t="s">
         <v>104</v>
       </c>
@@ -4140,7 +4158,7 @@
       </c>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="19">
+    <row r="108" spans="1:9" ht="18">
       <c r="A108" s="1" t="s">
         <v>105</v>
       </c>
@@ -4167,7 +4185,7 @@
       </c>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="19">
+    <row r="109" spans="1:9" ht="18">
       <c r="A109" s="1" t="s">
         <v>106</v>
       </c>
@@ -4194,7 +4212,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="19">
+    <row r="110" spans="1:9" ht="18">
       <c r="A110" s="1" t="s">
         <v>107</v>
       </c>
@@ -4221,7 +4239,7 @@
       </c>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="19">
+    <row r="111" spans="1:9" ht="18">
       <c r="A111" s="1" t="s">
         <v>108</v>
       </c>
@@ -4248,7 +4266,7 @@
       </c>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="19">
+    <row r="112" spans="1:9" ht="18">
       <c r="A112" s="1" t="s">
         <v>109</v>
       </c>
@@ -4275,7 +4293,7 @@
       </c>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="19">
+    <row r="113" spans="1:9" ht="18">
       <c r="A113" s="1" t="s">
         <v>110</v>
       </c>
@@ -4302,7 +4320,7 @@
       </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="19">
+    <row r="114" spans="1:9" ht="18">
       <c r="A114" s="1" t="s">
         <v>111</v>
       </c>
@@ -4329,7 +4347,7 @@
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="19">
+    <row r="115" spans="1:9" ht="18">
       <c r="A115" s="1" t="s">
         <v>112</v>
       </c>
@@ -4356,7 +4374,7 @@
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="19">
+    <row r="116" spans="1:9" ht="18">
       <c r="A116" s="1" t="s">
         <v>113</v>
       </c>
@@ -4383,7 +4401,7 @@
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="19">
+    <row r="117" spans="1:9" ht="18">
       <c r="A117" s="1" t="s">
         <v>114</v>
       </c>
@@ -4410,7 +4428,7 @@
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="19">
+    <row r="118" spans="1:9" ht="18">
       <c r="A118" s="1" t="s">
         <v>115</v>
       </c>
@@ -4437,15 +4455,15 @@
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="19">
+    <row r="119" spans="1:9" ht="18">
       <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B119" s="7">
         <v>1</v>
       </c>
-      <c r="C119" s="9">
-        <v>1</v>
+      <c r="C119" s="15">
+        <v>0</v>
       </c>
       <c r="D119" s="9">
         <v>1</v>
@@ -4464,7 +4482,7 @@
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="19">
+    <row r="120" spans="1:9" ht="18">
       <c r="A120" s="1" t="s">
         <v>117</v>
       </c>
@@ -4491,7 +4509,7 @@
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="19">
+    <row r="121" spans="1:9" ht="18">
       <c r="A121" s="1" t="s">
         <v>118</v>
       </c>
@@ -4518,7 +4536,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="19">
+    <row r="122" spans="1:9" ht="18">
       <c r="A122" s="1" t="s">
         <v>119</v>
       </c>
@@ -4545,7 +4563,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="19">
+    <row r="123" spans="1:9" ht="18">
       <c r="A123" s="1" t="s">
         <v>120</v>
       </c>
@@ -4572,7 +4590,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="19">
+    <row r="124" spans="1:9" ht="18">
       <c r="A124" s="1" t="s">
         <v>121</v>
       </c>
@@ -4599,7 +4617,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="19">
+    <row r="125" spans="1:9" ht="18">
       <c r="A125" s="1" t="s">
         <v>122</v>
       </c>
@@ -4626,7 +4644,7 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" ht="19">
+    <row r="126" spans="1:9" ht="18">
       <c r="A126" s="1" t="s">
         <v>123</v>
       </c>
@@ -4653,7 +4671,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" ht="19">
+    <row r="127" spans="1:9" ht="18">
       <c r="A127" s="1" t="s">
         <v>124</v>
       </c>
@@ -4680,7 +4698,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" ht="19">
+    <row r="128" spans="1:9" ht="18">
       <c r="A128" s="1" t="s">
         <v>125</v>
       </c>
@@ -4707,7 +4725,7 @@
       </c>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" ht="19">
+    <row r="129" spans="1:9" ht="18">
       <c r="A129" s="1" t="s">
         <v>126</v>
       </c>
@@ -4734,7 +4752,7 @@
       </c>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" ht="19">
+    <row r="130" spans="1:9" ht="18">
       <c r="A130" s="1" t="s">
         <v>127</v>
       </c>
@@ -4761,7 +4779,7 @@
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="19">
+    <row r="131" spans="1:9" ht="18">
       <c r="A131" s="1" t="s">
         <v>128</v>
       </c>
@@ -4788,7 +4806,7 @@
       </c>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" ht="19">
+    <row r="132" spans="1:9" ht="18">
       <c r="A132" s="1" t="s">
         <v>129</v>
       </c>
@@ -4815,7 +4833,7 @@
       </c>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" ht="19">
+    <row r="133" spans="1:9" ht="18">
       <c r="A133" s="1" t="s">
         <v>130</v>
       </c>
@@ -4842,7 +4860,7 @@
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" ht="19">
+    <row r="134" spans="1:9" ht="18">
       <c r="A134" s="1" t="s">
         <v>131</v>
       </c>
@@ -4869,7 +4887,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" ht="19">
+    <row r="135" spans="1:9" ht="18">
       <c r="A135" s="1" t="s">
         <v>132</v>
       </c>
@@ -4896,7 +4914,7 @@
       </c>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" ht="19">
+    <row r="136" spans="1:9" ht="18">
       <c r="A136" s="1" t="s">
         <v>133</v>
       </c>
@@ -4923,7 +4941,7 @@
       </c>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="19">
+    <row r="137" spans="1:9" ht="18">
       <c r="A137" s="1" t="s">
         <v>134</v>
       </c>
@@ -4950,7 +4968,7 @@
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="19">
+    <row r="138" spans="1:9" ht="18">
       <c r="A138" s="1" t="s">
         <v>135</v>
       </c>
@@ -4977,7 +4995,7 @@
       </c>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="19">
+    <row r="139" spans="1:9" ht="18">
       <c r="A139" s="1" t="s">
         <v>136</v>
       </c>
@@ -5004,7 +5022,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="19">
+    <row r="140" spans="1:9" ht="18">
       <c r="A140" s="1" t="s">
         <v>137</v>
       </c>
@@ -5031,7 +5049,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="19">
+    <row r="141" spans="1:9" ht="18">
       <c r="A141" s="1" t="s">
         <v>138</v>
       </c>
@@ -5058,7 +5076,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="19">
+    <row r="142" spans="1:9" ht="18">
       <c r="A142" s="1" t="s">
         <v>139</v>
       </c>
@@ -5085,7 +5103,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="19">
+    <row r="143" spans="1:9" ht="18">
       <c r="A143" s="1" t="s">
         <v>140</v>
       </c>
@@ -5112,7 +5130,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="19">
+    <row r="144" spans="1:9" ht="18">
       <c r="A144" s="1" t="s">
         <v>141</v>
       </c>
@@ -5139,7 +5157,7 @@
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="19">
+    <row r="145" spans="1:9" ht="18">
       <c r="A145" s="1" t="s">
         <v>142</v>
       </c>
@@ -5166,7 +5184,7 @@
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="19">
+    <row r="146" spans="1:9" ht="18">
       <c r="A146" s="1" t="s">
         <v>143</v>
       </c>
@@ -5193,7 +5211,7 @@
       </c>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="19">
+    <row r="147" spans="1:9" ht="18">
       <c r="A147" s="1" t="s">
         <v>144</v>
       </c>
@@ -5220,7 +5238,7 @@
       </c>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="19">
+    <row r="148" spans="1:9" ht="18">
       <c r="A148" s="1" t="s">
         <v>145</v>
       </c>
@@ -5247,7 +5265,7 @@
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="19">
+    <row r="149" spans="1:9" ht="18">
       <c r="A149" s="1" t="s">
         <v>146</v>
       </c>
@@ -5274,7 +5292,7 @@
       </c>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="19">
+    <row r="150" spans="1:9" ht="18">
       <c r="A150" s="1" t="s">
         <v>147</v>
       </c>
@@ -5301,7 +5319,7 @@
       </c>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="19">
+    <row r="151" spans="1:9" ht="18">
       <c r="A151" s="1" t="s">
         <v>148</v>
       </c>
@@ -5328,7 +5346,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="19">
+    <row r="152" spans="1:9" ht="18">
       <c r="A152" s="1" t="s">
         <v>149</v>
       </c>
@@ -5355,7 +5373,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="19">
+    <row r="153" spans="1:9" ht="18">
       <c r="A153" s="1" t="s">
         <v>150</v>
       </c>
@@ -5382,7 +5400,7 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="19">
+    <row r="154" spans="1:9" ht="18">
       <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
@@ -5409,7 +5427,7 @@
       </c>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" ht="19">
+    <row r="155" spans="1:9" ht="18">
       <c r="A155" s="1" t="s">
         <v>152</v>
       </c>
@@ -5436,7 +5454,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" ht="19">
+    <row r="156" spans="1:9" ht="18">
       <c r="A156" s="1" t="s">
         <v>153</v>
       </c>
@@ -5463,7 +5481,7 @@
       </c>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" ht="19">
+    <row r="157" spans="1:9" ht="18">
       <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
@@ -5490,7 +5508,7 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" ht="19">
+    <row r="158" spans="1:9" ht="18">
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
@@ -5517,7 +5535,7 @@
       </c>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" ht="19">
+    <row r="159" spans="1:9" ht="18">
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
@@ -5544,7 +5562,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" ht="19">
+    <row r="160" spans="1:9" ht="18">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
@@ -5571,7 +5589,7 @@
       </c>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" ht="19">
+    <row r="161" spans="1:9" ht="18">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
@@ -5598,7 +5616,7 @@
       </c>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" ht="19">
+    <row r="162" spans="1:9" ht="18">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
@@ -5625,7 +5643,7 @@
       </c>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" ht="19">
+    <row r="163" spans="1:9" ht="18">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
@@ -5652,7 +5670,7 @@
       </c>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" ht="19">
+    <row r="164" spans="1:9" ht="18">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
@@ -5679,7 +5697,7 @@
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" ht="19">
+    <row r="165" spans="1:9" ht="18">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
@@ -5706,7 +5724,7 @@
       </c>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" ht="19">
+    <row r="166" spans="1:9" ht="18">
       <c r="A166" s="3" t="s">
         <v>163</v>
       </c>
@@ -5733,7 +5751,7 @@
       </c>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" ht="19">
+    <row r="167" spans="1:9" ht="18">
       <c r="A167" s="1" t="s">
         <v>164</v>
       </c>
@@ -5760,7 +5778,7 @@
       </c>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" ht="19">
+    <row r="168" spans="1:9" ht="18">
       <c r="A168" s="1" t="s">
         <v>165</v>
       </c>
@@ -5787,7 +5805,7 @@
       </c>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" ht="19">
+    <row r="169" spans="1:9" ht="18">
       <c r="A169" s="1" t="s">
         <v>166</v>
       </c>
@@ -5814,7 +5832,7 @@
       </c>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" ht="19">
+    <row r="170" spans="1:9" ht="18">
       <c r="A170" s="1" t="s">
         <v>167</v>
       </c>
@@ -5841,7 +5859,7 @@
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" ht="19">
+    <row r="171" spans="1:9" ht="18">
       <c r="A171" s="1" t="s">
         <v>168</v>
       </c>
@@ -5868,7 +5886,7 @@
       </c>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" ht="19">
+    <row r="172" spans="1:9" ht="18">
       <c r="A172" s="1" t="s">
         <v>169</v>
       </c>
@@ -5895,7 +5913,7 @@
       </c>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9" ht="19">
+    <row r="173" spans="1:9" ht="18">
       <c r="A173" s="6" t="s">
         <v>170</v>
       </c>
@@ -5922,7 +5940,7 @@
       </c>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9" ht="19">
+    <row r="174" spans="1:9" ht="18">
       <c r="A174" s="1" t="s">
         <v>171</v>
       </c>
@@ -5949,7 +5967,7 @@
       </c>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" ht="19">
+    <row r="175" spans="1:9" ht="18">
       <c r="A175" s="1" t="s">
         <v>172</v>
       </c>
@@ -5976,7 +5994,7 @@
       </c>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" ht="19">
+    <row r="176" spans="1:9" ht="18">
       <c r="A176" s="1" t="s">
         <v>173</v>
       </c>
@@ -6003,7 +6021,7 @@
       </c>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9" ht="19">
+    <row r="177" spans="1:9" ht="18">
       <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
@@ -6030,7 +6048,7 @@
       </c>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9" ht="19">
+    <row r="178" spans="1:9" ht="18">
       <c r="A178" s="1" t="s">
         <v>175</v>
       </c>
@@ -6057,7 +6075,7 @@
       </c>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9" ht="19">
+    <row r="179" spans="1:9" ht="18">
       <c r="A179" s="1" t="s">
         <v>176</v>
       </c>
@@ -6084,7 +6102,7 @@
       </c>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9" ht="19">
+    <row r="180" spans="1:9" ht="18">
       <c r="A180" s="1" t="s">
         <v>177</v>
       </c>
@@ -6111,7 +6129,7 @@
       </c>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" ht="19">
+    <row r="181" spans="1:9" ht="18">
       <c r="A181" s="1" t="s">
         <v>178</v>
       </c>
@@ -6138,7 +6156,7 @@
       </c>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" ht="19">
+    <row r="182" spans="1:9" ht="18">
       <c r="A182" s="1" t="s">
         <v>179</v>
       </c>
@@ -6165,7 +6183,7 @@
       </c>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9" ht="19">
+    <row r="183" spans="1:9" ht="18">
       <c r="A183" s="1" t="s">
         <v>180</v>
       </c>
@@ -6192,7 +6210,7 @@
       </c>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:9" ht="19">
+    <row r="184" spans="1:9" ht="18">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
@@ -6219,7 +6237,7 @@
       </c>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9" ht="19">
+    <row r="185" spans="1:9" ht="18">
       <c r="A185" s="1" t="s">
         <v>182</v>
       </c>
@@ -6246,7 +6264,7 @@
       </c>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9" ht="19">
+    <row r="186" spans="1:9" ht="18">
       <c r="A186" s="1" t="s">
         <v>201</v>
       </c>
@@ -6273,7 +6291,7 @@
       </c>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" ht="19">
+    <row r="187" spans="1:9" ht="18">
       <c r="A187" s="1" t="s">
         <v>183</v>
       </c>
@@ -6300,7 +6318,7 @@
       </c>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9" ht="19">
+    <row r="188" spans="1:9" ht="18">
       <c r="A188" s="1" t="s">
         <v>184</v>
       </c>
@@ -6327,7 +6345,7 @@
       </c>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:9" ht="19">
+    <row r="189" spans="1:9" ht="18">
       <c r="A189" s="1" t="s">
         <v>185</v>
       </c>
@@ -6354,7 +6372,7 @@
       </c>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="1:9" ht="19">
+    <row r="190" spans="1:9" ht="18">
       <c r="A190" s="1" t="s">
         <v>186</v>
       </c>
@@ -6381,7 +6399,7 @@
       </c>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9" ht="19">
+    <row r="191" spans="1:9" ht="18">
       <c r="A191" s="1" t="s">
         <v>187</v>
       </c>
@@ -6408,7 +6426,7 @@
       </c>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9" ht="19">
+    <row r="192" spans="1:9" ht="18">
       <c r="A192" s="1" t="s">
         <v>188</v>
       </c>
@@ -6435,7 +6453,7 @@
       </c>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9" ht="19">
+    <row r="193" spans="1:9" ht="18">
       <c r="A193" s="1" t="s">
         <v>189</v>
       </c>
@@ -6462,7 +6480,7 @@
       </c>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9" ht="19">
+    <row r="194" spans="1:9" ht="18">
       <c r="A194" s="1" t="s">
         <v>190</v>
       </c>
@@ -6489,7 +6507,7 @@
       </c>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9" ht="19">
+    <row r="195" spans="1:9" ht="18">
       <c r="A195" s="1" t="s">
         <v>191</v>
       </c>
@@ -6516,7 +6534,7 @@
       </c>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="1:9" ht="19">
+    <row r="196" spans="1:9" ht="18">
       <c r="A196" s="1" t="s">
         <v>192</v>
       </c>
@@ -6543,7 +6561,7 @@
       </c>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9" ht="19">
+    <row r="197" spans="1:9" ht="18">
       <c r="A197" s="1" t="s">
         <v>193</v>
       </c>
@@ -6570,7 +6588,7 @@
       </c>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="1:9" ht="19">
+    <row r="198" spans="1:9" ht="18">
       <c r="A198" s="1" t="s">
         <v>194</v>
       </c>
@@ -6597,7 +6615,7 @@
       </c>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="1:9" ht="19">
+    <row r="199" spans="1:9" ht="18">
       <c r="A199" s="4" t="s">
         <v>218</v>
       </c>
@@ -6624,15 +6642,15 @@
       </c>
       <c r="I199" s="5"/>
     </row>
-    <row r="200" spans="1:9" ht="19">
+    <row r="200" spans="1:9" ht="18">
       <c r="A200" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B200" s="7">
         <v>0</v>
       </c>
-      <c r="C200" s="9">
-        <v>1</v>
+      <c r="C200" s="15">
+        <v>0</v>
       </c>
       <c r="D200" s="9">
         <v>1</v>
@@ -6651,7 +6669,7 @@
       </c>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="1:9" ht="19">
+    <row r="201" spans="1:9" ht="18">
       <c r="A201" s="1" t="s">
         <v>196</v>
       </c>
@@ -6678,7 +6696,7 @@
       </c>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="1:9" ht="19">
+    <row r="202" spans="1:9" ht="18">
       <c r="A202" s="1" t="s">
         <v>197</v>
       </c>
@@ -6705,7 +6723,7 @@
       </c>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="1:9" ht="19">
+    <row r="203" spans="1:9" ht="18">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
@@ -6732,7 +6750,7 @@
       </c>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="1:9" ht="19">
+    <row r="204" spans="1:9" ht="18">
       <c r="A204" s="1" t="s">
         <v>198</v>
       </c>
@@ -6759,7 +6777,7 @@
       </c>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="1:9" ht="19">
+    <row r="205" spans="1:9" ht="18">
       <c r="A205" s="1" t="s">
         <v>199</v>
       </c>
@@ -6786,7 +6804,7 @@
       </c>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="1:9" ht="19">
+    <row r="206" spans="1:9" ht="18">
       <c r="A206" s="2" t="s">
         <v>204</v>
       </c>
@@ -6813,7 +6831,7 @@
       </c>
       <c r="I206" s="2"/>
     </row>
-    <row r="207" spans="1:9" ht="19">
+    <row r="207" spans="1:9" ht="18">
       <c r="A207" s="2" t="s">
         <v>205</v>
       </c>
@@ -6840,7 +6858,7 @@
       </c>
       <c r="I207" s="2"/>
     </row>
-    <row r="208" spans="1:9" ht="19">
+    <row r="208" spans="1:9" ht="18">
       <c r="A208" s="2" t="s">
         <v>206</v>
       </c>
@@ -6867,15 +6885,15 @@
       </c>
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="1:9" ht="19">
+    <row r="209" spans="1:9" ht="18">
       <c r="A209" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B209" s="7">
         <v>1</v>
       </c>
-      <c r="C209" s="7">
-        <v>1</v>
+      <c r="C209" s="16">
+        <v>0</v>
       </c>
       <c r="D209" s="7">
         <v>0</v>
@@ -6894,7 +6912,7 @@
       </c>
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="1:9" ht="19">
+    <row r="210" spans="1:9" ht="18">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
@@ -6921,7 +6939,7 @@
       </c>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="1:9" ht="19">
+    <row r="211" spans="1:9" ht="18">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -6948,7 +6966,7 @@
       </c>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="1:9" ht="19">
+    <row r="212" spans="1:9" ht="18">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -6975,7 +6993,7 @@
       </c>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="1:9" ht="19">
+    <row r="213" spans="1:9" ht="18">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
@@ -7002,7 +7020,7 @@
       </c>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="1:9" ht="19">
+    <row r="214" spans="1:9" ht="18">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -7029,7 +7047,7 @@
       </c>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="1:9" ht="19">
+    <row r="215" spans="1:9" ht="18">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -7056,7 +7074,7 @@
       </c>
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="1:9" ht="19">
+    <row r="216" spans="1:9" ht="18">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -7083,7 +7101,7 @@
       </c>
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="1:9" ht="19">
+    <row r="217" spans="1:9" ht="18">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -7110,7 +7128,7 @@
       </c>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="1:9" ht="19">
+    <row r="218" spans="1:9" ht="18">
       <c r="A218" s="2" t="s">
         <v>219</v>
       </c>
@@ -7137,7 +7155,7 @@
       </c>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="1:9" ht="19">
+    <row r="219" spans="1:9" ht="18">
       <c r="A219" s="2" t="s">
         <v>220</v>
       </c>
@@ -7164,7 +7182,7 @@
       </c>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="1:9" ht="19">
+    <row r="220" spans="1:9" ht="18">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -7191,7 +7209,7 @@
       </c>
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="1:9" ht="19">
+    <row r="221" spans="1:9" ht="18">
       <c r="A221" s="2" t="s">
         <v>222</v>
       </c>
@@ -7218,7 +7236,7 @@
       </c>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="1:9" ht="19">
+    <row r="222" spans="1:9" ht="18">
       <c r="A222" s="2" t="s">
         <v>226</v>
       </c>
@@ -7245,7 +7263,7 @@
       </c>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="1:9" ht="19">
+    <row r="223" spans="1:9" ht="18">
       <c r="A223" s="2" t="s">
         <v>227</v>
       </c>
@@ -7272,7 +7290,7 @@
       </c>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="1:9" ht="19">
+    <row r="224" spans="1:9" ht="18">
       <c r="A224" s="2" t="s">
         <v>228</v>
       </c>
@@ -7299,7 +7317,7 @@
       </c>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="1:9" ht="19">
+    <row r="225" spans="1:9" ht="18">
       <c r="A225" s="2" t="s">
         <v>229</v>
       </c>
@@ -7326,7 +7344,7 @@
       </c>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="1:9" ht="19">
+    <row r="226" spans="1:9" ht="18">
       <c r="A226" s="2" t="s">
         <v>230</v>
       </c>
@@ -7353,7 +7371,7 @@
       </c>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="1:9" ht="19">
+    <row r="227" spans="1:9" ht="18">
       <c r="A227" s="2" t="s">
         <v>231</v>
       </c>
@@ -7380,7 +7398,7 @@
       </c>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="1:9" ht="19">
+    <row r="228" spans="1:9" ht="18">
       <c r="A228" s="2" t="s">
         <v>232</v>
       </c>
@@ -7407,7 +7425,7 @@
       </c>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:9" ht="19">
+    <row r="229" spans="1:9" ht="18">
       <c r="A229" s="2" t="s">
         <v>233</v>
       </c>
@@ -7434,7 +7452,7 @@
       </c>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="1:9" ht="19">
+    <row r="230" spans="1:9" ht="18">
       <c r="A230" s="2" t="s">
         <v>234</v>
       </c>
@@ -7461,7 +7479,7 @@
       </c>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="1:9" ht="19">
+    <row r="231" spans="1:9" ht="18">
       <c r="A231" s="2" t="s">
         <v>235</v>
       </c>
@@ -7488,7 +7506,7 @@
       </c>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="1:9" ht="19">
+    <row r="232" spans="1:9" ht="18">
       <c r="A232" s="2" t="s">
         <v>236</v>
       </c>
@@ -7515,7 +7533,7 @@
       </c>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="1:9" ht="19">
+    <row r="233" spans="1:9" ht="18">
       <c r="A233" s="2" t="s">
         <v>237</v>
       </c>
@@ -7542,7 +7560,7 @@
       </c>
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="1:9" ht="19">
+    <row r="234" spans="1:9" ht="18">
       <c r="A234" s="2" t="s">
         <v>238</v>
       </c>
@@ -7569,7 +7587,7 @@
       </c>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="1:9" ht="19">
+    <row r="235" spans="1:9" ht="18">
       <c r="A235" s="2" t="s">
         <v>239</v>
       </c>
@@ -7596,7 +7614,7 @@
       </c>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="1:9" ht="19">
+    <row r="236" spans="1:9" ht="18">
       <c r="A236" s="2" t="s">
         <v>240</v>
       </c>
@@ -7623,7 +7641,7 @@
       </c>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="1:9" ht="19">
+    <row r="237" spans="1:9" ht="18">
       <c r="A237" s="2" t="s">
         <v>241</v>
       </c>
@@ -7650,7 +7668,7 @@
       </c>
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="1:9" ht="19">
+    <row r="238" spans="1:9" ht="18">
       <c r="A238" s="2" t="s">
         <v>242</v>
       </c>
@@ -7677,7 +7695,7 @@
       </c>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="1:9" ht="19">
+    <row r="239" spans="1:9" ht="18">
       <c r="A239" s="2" t="s">
         <v>243</v>
       </c>
@@ -7704,7 +7722,7 @@
       </c>
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="1:9" ht="19">
+    <row r="240" spans="1:9" ht="18">
       <c r="A240" s="2" t="s">
         <v>246</v>
       </c>
@@ -7731,7 +7749,7 @@
       </c>
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="1:9" ht="19">
+    <row r="241" spans="1:9" ht="18">
       <c r="A241" s="2" t="s">
         <v>247</v>
       </c>
@@ -7758,7 +7776,7 @@
       </c>
       <c r="I241" s="2"/>
     </row>
-    <row r="242" spans="1:9" ht="19">
+    <row r="242" spans="1:9" ht="18">
       <c r="A242" s="2" t="s">
         <v>248</v>
       </c>
@@ -7785,7 +7803,7 @@
       </c>
       <c r="I242" s="2"/>
     </row>
-    <row r="243" spans="1:9" ht="19">
+    <row r="243" spans="1:9" ht="18">
       <c r="A243" s="2" t="s">
         <v>249</v>
       </c>
@@ -7812,7 +7830,7 @@
       </c>
       <c r="I243" s="2"/>
     </row>
-    <row r="244" spans="1:9" ht="19">
+    <row r="244" spans="1:9" ht="18">
       <c r="A244" s="2" t="s">
         <v>250</v>
       </c>
@@ -7839,7 +7857,7 @@
       </c>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:9" ht="19">
+    <row r="245" spans="1:9" ht="18">
       <c r="A245" s="2" t="s">
         <v>251</v>
       </c>
@@ -7866,7 +7884,7 @@
       </c>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="1:9" ht="19">
+    <row r="246" spans="1:9" ht="18">
       <c r="A246" s="2" t="s">
         <v>252</v>
       </c>
@@ -7893,7 +7911,7 @@
       </c>
       <c r="I246" s="2"/>
     </row>
-    <row r="247" spans="1:9" ht="19">
+    <row r="247" spans="1:9" ht="18">
       <c r="A247" s="2" t="s">
         <v>253</v>
       </c>
@@ -7920,7 +7938,7 @@
       </c>
       <c r="I247" s="2"/>
     </row>
-    <row r="248" spans="1:9" ht="19">
+    <row r="248" spans="1:9" ht="18">
       <c r="A248" s="2" t="s">
         <v>254</v>
       </c>
@@ -7946,7 +7964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="19">
+    <row r="249" spans="1:9" ht="18">
       <c r="A249" s="2" t="s">
         <v>255</v>
       </c>
@@ -7972,7 +7990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="19">
+    <row r="250" spans="1:9" ht="18">
       <c r="A250" s="2" t="s">
         <v>256</v>
       </c>
@@ -7995,6 +8013,58 @@
         <v>1</v>
       </c>
       <c r="H250" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="18">
+      <c r="A251" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B251" s="14">
+        <v>1</v>
+      </c>
+      <c r="C251" s="14">
+        <v>1</v>
+      </c>
+      <c r="D251" s="14">
+        <v>1</v>
+      </c>
+      <c r="E251" s="14">
+        <v>1</v>
+      </c>
+      <c r="F251" s="14">
+        <v>1</v>
+      </c>
+      <c r="G251" s="14">
+        <v>1</v>
+      </c>
+      <c r="H251" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="18">
+      <c r="A252" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B252" s="14">
+        <v>1</v>
+      </c>
+      <c r="C252" s="14">
+        <v>1</v>
+      </c>
+      <c r="D252" s="14">
+        <v>1</v>
+      </c>
+      <c r="E252" s="14">
+        <v>1</v>
+      </c>
+      <c r="F252" s="14">
+        <v>1</v>
+      </c>
+      <c r="G252" s="14">
+        <v>1</v>
+      </c>
+      <c r="H252" s="14">
         <v>1</v>
       </c>
     </row>

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abeltingle/Documents/GitHub/iFerment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2A98E7-E20E-3C4D-BA1E-7C019258E8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A00F64F-7EAE-FC43-A2E0-4E4502D4B2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="1440" windowWidth="15360" windowHeight="11520" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="2300" yWindow="1440" windowWidth="20520" windowHeight="11520" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
   <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="8">
         <v>0</v>

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abeltingle/Documents/GitHub/iFerment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A00F64F-7EAE-FC43-A2E0-4E4502D4B2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14811617-4DC5-1446-9B19-D2BB28050E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="1440" windowWidth="20520" windowHeight="11520" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>EX_xyl4_e</t>
   </si>
@@ -807,9 +807,6 @@
   </si>
   <si>
     <t>CDH</t>
-  </si>
-  <si>
-    <t>BE</t>
   </si>
 </sst>
 </file>
@@ -886,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -915,9 +912,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1245,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
   <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="G258" sqref="G258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -3346,7 +3340,7 @@
       <c r="B78" s="6">
         <v>0</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="12">
         <v>1</v>
       </c>
       <c r="D78" s="8">
@@ -3373,7 +3367,7 @@
       <c r="B79" s="6">
         <v>0</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="12">
         <v>1</v>
       </c>
       <c r="D79" s="8">
@@ -4453,7 +4447,7 @@
       <c r="B119" s="6">
         <v>1</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="12">
         <v>0</v>
       </c>
       <c r="D119" s="8">
@@ -5905,7 +5899,7 @@
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9" ht="19">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="14" t="s">
         <v>170</v>
       </c>
       <c r="B173" s="10">
@@ -6640,7 +6634,7 @@
       <c r="B200" s="6">
         <v>0</v>
       </c>
-      <c r="C200" s="13">
+      <c r="C200" s="12">
         <v>0</v>
       </c>
       <c r="D200" s="8">
@@ -6883,7 +6877,7 @@
       <c r="B209" s="6">
         <v>1</v>
       </c>
-      <c r="C209" s="14">
+      <c r="C209" s="13">
         <v>0</v>
       </c>
       <c r="D209" s="6">
@@ -7906,26 +7900,26 @@
       <c r="A247" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B247" s="12">
-        <v>1</v>
-      </c>
-      <c r="C247" s="12">
-        <v>1</v>
-      </c>
-      <c r="D247" s="12">
-        <v>1</v>
-      </c>
-      <c r="E247" s="12">
-        <v>1</v>
-      </c>
-      <c r="F247" s="12">
-        <v>1</v>
-      </c>
-      <c r="G247" s="12">
-        <v>1</v>
-      </c>
-      <c r="H247" s="12">
-        <v>1</v>
+      <c r="B247" s="1">
+        <v>0</v>
+      </c>
+      <c r="C247" s="2">
+        <v>0</v>
+      </c>
+      <c r="D247" s="2">
+        <v>1</v>
+      </c>
+      <c r="E247" s="2">
+        <v>1</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0</v>
+      </c>
+      <c r="G247" s="1">
+        <v>0</v>
+      </c>
+      <c r="H247" s="1">
+        <v>0</v>
       </c>
       <c r="I247" s="2"/>
     </row>
@@ -7933,25 +7927,25 @@
       <c r="A248" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B248" s="12">
-        <v>1</v>
-      </c>
-      <c r="C248" s="12">
-        <v>1</v>
-      </c>
-      <c r="D248" s="12">
-        <v>1</v>
-      </c>
-      <c r="E248" s="12">
-        <v>1</v>
-      </c>
-      <c r="F248" s="12">
-        <v>1</v>
-      </c>
-      <c r="G248" s="12">
-        <v>1</v>
-      </c>
-      <c r="H248" s="12">
+      <c r="B248" s="1">
+        <v>0</v>
+      </c>
+      <c r="C248" s="2">
+        <v>0</v>
+      </c>
+      <c r="D248" s="2">
+        <v>0</v>
+      </c>
+      <c r="E248" s="2">
+        <v>0</v>
+      </c>
+      <c r="F248" s="1">
+        <v>1</v>
+      </c>
+      <c r="G248" s="1">
+        <v>0</v>
+      </c>
+      <c r="H248" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7959,103 +7953,101 @@
       <c r="A249" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B249" s="12">
-        <v>1</v>
-      </c>
-      <c r="C249" s="12">
-        <v>1</v>
-      </c>
-      <c r="D249" s="12">
-        <v>1</v>
-      </c>
-      <c r="E249" s="12">
-        <v>1</v>
-      </c>
-      <c r="F249" s="12">
-        <v>1</v>
-      </c>
-      <c r="G249" s="12">
-        <v>1</v>
-      </c>
-      <c r="H249" s="12">
-        <v>1</v>
+      <c r="B249" s="2">
+        <v>1</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1</v>
+      </c>
+      <c r="D249" s="2">
+        <v>1</v>
+      </c>
+      <c r="E249" s="2">
+        <v>1</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0</v>
+      </c>
+      <c r="G249" s="1">
+        <v>1</v>
+      </c>
+      <c r="H249" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="19">
       <c r="A250" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B250" s="12">
-        <v>1</v>
-      </c>
-      <c r="C250" s="12">
-        <v>1</v>
-      </c>
-      <c r="D250" s="12">
-        <v>1</v>
-      </c>
-      <c r="E250" s="12">
-        <v>1</v>
-      </c>
-      <c r="F250" s="12">
-        <v>1</v>
-      </c>
-      <c r="G250" s="12">
-        <v>1</v>
-      </c>
-      <c r="H250" s="12">
-        <v>1</v>
+      <c r="B250" s="2">
+        <v>0</v>
+      </c>
+      <c r="C250" s="2">
+        <v>0</v>
+      </c>
+      <c r="D250" s="2">
+        <v>0</v>
+      </c>
+      <c r="E250" s="2">
+        <v>0</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0</v>
+      </c>
+      <c r="G250" s="1">
+        <v>0</v>
+      </c>
+      <c r="H250" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="19">
       <c r="A251" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B251" s="12">
-        <v>1</v>
-      </c>
-      <c r="C251" s="12">
-        <v>1</v>
-      </c>
-      <c r="D251" s="12">
-        <v>1</v>
-      </c>
-      <c r="E251" s="12">
-        <v>1</v>
-      </c>
-      <c r="F251" s="12">
-        <v>1</v>
-      </c>
-      <c r="G251" s="12">
-        <v>1</v>
-      </c>
-      <c r="H251" s="12">
+      <c r="B251" s="2">
+        <v>0</v>
+      </c>
+      <c r="C251" s="2">
+        <v>0</v>
+      </c>
+      <c r="D251" s="2">
+        <v>1</v>
+      </c>
+      <c r="E251" s="2">
+        <v>0</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0</v>
+      </c>
+      <c r="G251" s="1">
+        <v>1</v>
+      </c>
+      <c r="H251" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="19">
-      <c r="A252" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B252" s="12">
-        <v>1</v>
-      </c>
-      <c r="C252" s="12">
-        <v>1</v>
-      </c>
-      <c r="D252" s="12">
-        <v>1</v>
-      </c>
-      <c r="E252" s="12">
-        <v>1</v>
-      </c>
-      <c r="F252" s="12">
-        <v>1</v>
-      </c>
-      <c r="G252" s="12">
-        <v>1</v>
-      </c>
-      <c r="H252" s="12">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2">
+        <v>1</v>
+      </c>
+      <c r="C252" s="2">
+        <v>1</v>
+      </c>
+      <c r="D252" s="2">
+        <v>1</v>
+      </c>
+      <c r="E252" s="2">
+        <v>1</v>
+      </c>
+      <c r="F252" s="1">
+        <v>1</v>
+      </c>
+      <c r="G252" s="1">
+        <v>1</v>
+      </c>
+      <c r="H252" s="1">
         <v>1</v>
       </c>
     </row>

--- a/iFerment_assignments.xlsx
+++ b/iFerment_assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abeltingle/Documents/GitHub/iFerment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14811617-4DC5-1446-9B19-D2BB28050E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3C0883-133C-DA4F-B3F3-F6DA54F8EEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="1440" windowWidth="20520" windowHeight="11520" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
+    <workbookView xWindow="560" yWindow="1040" windowWidth="20520" windowHeight="11520" xr2:uid="{3C0AD297-627C-BB48-99C2-62B05FC79ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="iFerment_assignments" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>EX_xyl4_e</t>
   </si>
@@ -807,6 +807,12 @@
   </si>
   <si>
     <t>CDH</t>
+  </si>
+  <si>
+    <t>LACLt</t>
+  </si>
+  <si>
+    <t>EX_lac__L_e</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB107D0F-33E2-D642-B950-A3F64C84BC6C}">
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G258" sqref="G258"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="G248" sqref="G248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -7986,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="D250" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" s="2">
         <v>0</v>
@@ -7995,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="G250" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="19">
@@ -8006,19 +8012,19 @@
         <v>257</v>
       </c>
       <c r="B251" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" s="2">
         <v>1</v>
       </c>
       <c r="E251" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251" s="1">
         <v>1</v>
@@ -8028,7 +8034,9 @@
       </c>
     </row>
     <row r="252" spans="1:9" ht="19">
-      <c r="A252" s="2"/>
+      <c r="A252" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="B252" s="2">
         <v>1</v>
       </c>
@@ -8041,13 +8049,39 @@
       <c r="E252" s="2">
         <v>1</v>
       </c>
-      <c r="F252" s="1">
-        <v>1</v>
-      </c>
-      <c r="G252" s="1">
-        <v>1</v>
-      </c>
-      <c r="H252" s="1">
+      <c r="F252" s="2">
+        <v>1</v>
+      </c>
+      <c r="G252" s="2">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="19">
+      <c r="A253" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B253" s="2">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1</v>
+      </c>
+      <c r="D253" s="2">
+        <v>1</v>
+      </c>
+      <c r="E253" s="2">
+        <v>1</v>
+      </c>
+      <c r="F253" s="2">
+        <v>1</v>
+      </c>
+      <c r="G253" s="2">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2">
         <v>1</v>
       </c>
     </row>
